--- a/data/trans_bre/CoTrAQ_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.55165687957806</v>
+        <v>-13.71186562732993</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.23904024699038</v>
+        <v>-11.59537778390516</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1958743927881576</v>
+        <v>-0.2160218618561431</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2358473482256039</v>
+        <v>-0.2373954905197303</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.695957120810209</v>
+        <v>5.334337573057174</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.002305395735546</v>
+        <v>5.289861416075958</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1024841535603516</v>
+        <v>0.09218292997251942</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1298147518120111</v>
+        <v>0.1277569003242857</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-18.45466777521579</v>
+        <v>-19.00971839829841</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.925434177146633</v>
+        <v>-7.215004159235934</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.256900173211333</v>
+        <v>-0.2674508836236388</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1342291939023952</v>
+        <v>-0.1403364390045709</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.866548861341088</v>
+        <v>-3.134057459429141</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.595776453657042</v>
+        <v>8.795798574578855</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.03232390637800772</v>
+        <v>-0.0460242427714905</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1903328964642086</v>
+        <v>0.2012051492915561</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.892107168482258</v>
+        <v>-7.101810960372037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.5229579807722</v>
+        <v>-13.86316675287669</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.09109906930253492</v>
+        <v>-0.09437262831743334</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.235724404415938</v>
+        <v>-0.2223246243008858</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.886896022984923</v>
+        <v>6.586243872097181</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8410882787954423</v>
+        <v>0.5040526676407033</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.09806079366383189</v>
+        <v>0.09326182783853899</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.01347806015668264</v>
+        <v>0.0116830493747691</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.88727637892316</v>
+        <v>-14.42825301139627</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-15.84398869652165</v>
+        <v>-15.49425147682929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1818382791243674</v>
+        <v>-0.1798646994724441</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2299113113325026</v>
+        <v>-0.225556139828548</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.294328651450872</v>
+        <v>3.646789591049323</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.684816679199987</v>
+        <v>4.122245037976602</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03011177390102462</v>
+        <v>0.04650650541633235</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0628544073596931</v>
+        <v>0.06817236290183711</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.07450131930367</v>
+        <v>-9.781436063518552</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.845927671672147</v>
+        <v>-8.565973979121161</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.1398921467971671</v>
+        <v>-0.1341972762160239</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1605648612922406</v>
+        <v>-0.1530513730632257</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.925302131484151</v>
+        <v>-1.421679311547904</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.5370292036760331</v>
+        <v>-0.2039345315422752</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.02825568713034912</v>
+        <v>-0.02050599637171567</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.01191057884413742</v>
+        <v>-0.003780818760268931</v>
       </c>
     </row>
     <row r="19">
